--- a/myapp/streamed-workbook.xlsx
+++ b/myapp/streamed-workbook.xlsx
@@ -4,30 +4,700 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" r:id="rId4"/>
-    <sheet sheetId="2" name="sheet" r:id="rId5"/>
+    <sheet sheetId="1" name="Grupper" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Gate of Birth</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="223">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Grupp 1</t>
+  </si>
+  <si>
+    <t>Titti Broman</t>
+  </si>
+  <si>
+    <t>tittib@kth.se</t>
+  </si>
+  <si>
+    <t>Michelle Almgren Snögren</t>
+  </si>
+  <si>
+    <t>msnogren@kth.se</t>
+  </si>
+  <si>
+    <t>Johan Staflund</t>
+  </si>
+  <si>
+    <t>stafl@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 2</t>
+  </si>
+  <si>
+    <t>Fanny Algstedt</t>
+  </si>
+  <si>
+    <t>algstedt@kth.se</t>
+  </si>
+  <si>
+    <t>Hanna Käck</t>
+  </si>
+  <si>
+    <t>hkack@kth.se</t>
+  </si>
+  <si>
+    <t>Rickard Östblom</t>
+  </si>
+  <si>
+    <t>rostblom@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 3</t>
+  </si>
+  <si>
+    <t>Olivia Sjöwall</t>
+  </si>
+  <si>
+    <t>osjovall@kth.se</t>
+  </si>
+  <si>
+    <t>Oscar Svanberg</t>
+  </si>
+  <si>
+    <t>osva@kth.se</t>
+  </si>
+  <si>
+    <t>Carl Otto Tuneld</t>
+  </si>
+  <si>
+    <t>tuneld@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 4</t>
+  </si>
+  <si>
+    <t>Amanda Grafström</t>
+  </si>
+  <si>
+    <t>amagra@kth.se</t>
+  </si>
+  <si>
+    <t>Caroline Hansols</t>
+  </si>
+  <si>
+    <t>chansols@kth.se</t>
+  </si>
+  <si>
+    <t>Simon Svedman Lindros</t>
+  </si>
+  <si>
+    <t>ssvedman@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 5</t>
+  </si>
+  <si>
+    <t>Sandra Karimi Valdani</t>
+  </si>
+  <si>
+    <t>sandrakv@kth.se</t>
+  </si>
+  <si>
+    <t>Linus Svensson</t>
+  </si>
+  <si>
+    <t>linussv@kth.se</t>
+  </si>
+  <si>
+    <t>Emma Wigren</t>
+  </si>
+  <si>
+    <t>emmawig@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 6</t>
+  </si>
+  <si>
+    <t>Andrea Larsson</t>
+  </si>
+  <si>
+    <t>andreal2@kth.se</t>
+  </si>
+  <si>
+    <t>Klara Martinsson</t>
+  </si>
+  <si>
+    <t>klaramar@kth.se</t>
+  </si>
+  <si>
+    <t>Ebba Schmid</t>
+  </si>
+  <si>
+    <t>eschmid@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 7</t>
+  </si>
+  <si>
+    <t>Stefan Berg</t>
+  </si>
+  <si>
+    <t>stefb@kth.se</t>
+  </si>
+  <si>
+    <t>Anna-Mona Jarallah</t>
+  </si>
+  <si>
+    <t>jarallah@kth.se</t>
+  </si>
+  <si>
+    <t>Måns Johansson</t>
+  </si>
+  <si>
+    <t>manjoh@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 8</t>
+  </si>
+  <si>
+    <t>August Isacsson</t>
+  </si>
+  <si>
+    <t>augusti@kth.se</t>
+  </si>
+  <si>
+    <t>Jakob Lundwall</t>
+  </si>
+  <si>
+    <t>lundw@kth.se</t>
+  </si>
+  <si>
+    <t>Emil Marefat Mohammadi</t>
+  </si>
+  <si>
+    <t>emilmm@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 9</t>
+  </si>
+  <si>
+    <t>Charlotte Lund</t>
+  </si>
+  <si>
+    <t>charlund@kth.se</t>
+  </si>
+  <si>
+    <t>Jens Nilsson</t>
+  </si>
+  <si>
+    <t>jensn2@kth.se</t>
+  </si>
+  <si>
+    <t>Lisa Olsson</t>
+  </si>
+  <si>
+    <t>lisaols@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 10</t>
+  </si>
+  <si>
+    <t>Jenny Fält</t>
+  </si>
+  <si>
+    <t>jenfal@kth.se</t>
+  </si>
+  <si>
+    <t>Andrea Paulsson</t>
+  </si>
+  <si>
+    <t>apauls@kth.se</t>
+  </si>
+  <si>
+    <t>Hilda Skoglund</t>
+  </si>
+  <si>
+    <t>hildask@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 11</t>
+  </si>
+  <si>
+    <t>Alice Enström</t>
+  </si>
+  <si>
+    <t>aliceen@kth.se</t>
+  </si>
+  <si>
+    <t>Nathalie Farrokhi</t>
+  </si>
+  <si>
+    <t>farrokhi@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Max</t>
+  </si>
+  <si>
+    <t>dmax@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 12</t>
+  </si>
+  <si>
+    <t>Karolin Ayarra De La Borbolla</t>
+  </si>
+  <si>
+    <t>kadlb@kth.se</t>
+  </si>
+  <si>
+    <t>Alexander Sjöling</t>
+  </si>
+  <si>
+    <t>asjoli@kth.se</t>
+  </si>
+  <si>
+    <t>August Vilhelmson</t>
+  </si>
+  <si>
+    <t>augustv@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 13</t>
+  </si>
+  <si>
+    <t>Lina Eklöv</t>
+  </si>
+  <si>
+    <t>leklov@kth.se</t>
+  </si>
+  <si>
+    <t>Sofia Fjelkestam</t>
+  </si>
+  <si>
+    <t>sofiafj@kth.se</t>
+  </si>
+  <si>
+    <t>Maria Forsgren</t>
+  </si>
+  <si>
+    <t>mforsg@kth.se</t>
+  </si>
+  <si>
+    <t>Åsa Norling</t>
+  </si>
+  <si>
+    <t>asanorl@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 14</t>
+  </si>
+  <si>
+    <t>Cissi Chong</t>
+  </si>
+  <si>
+    <t>cissic@kth.se</t>
+  </si>
+  <si>
+    <t>Karolina Mikkonen</t>
+  </si>
+  <si>
+    <t>kmik@kth.se</t>
+  </si>
+  <si>
+    <t>Malin Strömberg</t>
+  </si>
+  <si>
+    <t>malstro@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 15</t>
+  </si>
+  <si>
+    <t>Isabella Adler</t>
+  </si>
+  <si>
+    <t>iadler@kth.se</t>
+  </si>
+  <si>
+    <t>Paulin Singh</t>
+  </si>
+  <si>
+    <t>paulins@kth.se</t>
+  </si>
+  <si>
+    <t>Carl Ullström</t>
+  </si>
+  <si>
+    <t>carlul@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 16</t>
+  </si>
+  <si>
+    <t>Mikaela Butrs</t>
+  </si>
+  <si>
+    <t>butrs@kth.se</t>
+  </si>
+  <si>
+    <t>Maria Nilsson</t>
+  </si>
+  <si>
+    <t>mariani7@kth.se</t>
+  </si>
+  <si>
+    <t>Linnea Ölund</t>
+  </si>
+  <si>
+    <t>linolu@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 17</t>
+  </si>
+  <si>
+    <t>Ayub Aden</t>
+  </si>
+  <si>
+    <t>ayubaden@kth.se</t>
+  </si>
+  <si>
+    <t>Atid Mohammed</t>
+  </si>
+  <si>
+    <t>atid@kth.se</t>
+  </si>
+  <si>
+    <t>Serhat Uzun</t>
+  </si>
+  <si>
+    <t>uzun@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 18</t>
+  </si>
+  <si>
+    <t>Zaid Al-Karkhi</t>
+  </si>
+  <si>
+    <t>zaidak@kth.se</t>
+  </si>
+  <si>
+    <t>Milan Sofipour</t>
+  </si>
+  <si>
+    <t>sofipour@kth.se</t>
+  </si>
+  <si>
+    <t>Dana Trabulsi</t>
+  </si>
+  <si>
+    <t>danat@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 19</t>
+  </si>
+  <si>
+    <t>Moa Fasih</t>
+  </si>
+  <si>
+    <t>mfasih@kth.se</t>
+  </si>
+  <si>
+    <t>Elsa Häggström</t>
+  </si>
+  <si>
+    <t>elsahag@kth.se</t>
+  </si>
+  <si>
+    <t>Johanna Jönsson</t>
+  </si>
+  <si>
+    <t>jjo4@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 20</t>
+  </si>
+  <si>
+    <t>Isabella Carlbom</t>
+  </si>
+  <si>
+    <t>isca@kth.se</t>
+  </si>
+  <si>
+    <t>Mikael Karlsson</t>
+  </si>
+  <si>
+    <t>mk9@kth.se</t>
+  </si>
+  <si>
+    <t>Anna Sköld</t>
+  </si>
+  <si>
+    <t>anskol@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 21</t>
+  </si>
+  <si>
+    <t>David Bechara</t>
+  </si>
+  <si>
+    <t>dbechara@kth.se</t>
+  </si>
+  <si>
+    <t>Richard Lindqvist</t>
+  </si>
+  <si>
+    <t>rilindq@kth.se</t>
+  </si>
+  <si>
+    <t>Simon Nyqvist</t>
+  </si>
+  <si>
+    <t>snyqvist@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 22</t>
+  </si>
+  <si>
+    <t>Lucas Jurado Sjölund</t>
+  </si>
+  <si>
+    <t>ljurado@kth.se</t>
+  </si>
+  <si>
+    <t>Emil Svensson</t>
+  </si>
+  <si>
+    <t>emsv@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 23</t>
+  </si>
+  <si>
+    <t>Patrik Carlsson</t>
+  </si>
+  <si>
+    <t>pacar@kth.se</t>
+  </si>
+  <si>
+    <t>Anna Engblom</t>
+  </si>
+  <si>
+    <t>annaengb@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 24</t>
+  </si>
+  <si>
+    <t>Martina Andersson</t>
+  </si>
+  <si>
+    <t>marand5@kth.se</t>
+  </si>
+  <si>
+    <t>Sara Andersson</t>
+  </si>
+  <si>
+    <t>saraa7@kth.se</t>
+  </si>
+  <si>
+    <t>Johan Svanberg</t>
+  </si>
+  <si>
+    <t>jsvanb@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 25</t>
+  </si>
+  <si>
+    <t>Nathalie Andersson</t>
+  </si>
+  <si>
+    <t>naande@kth.se</t>
+  </si>
+  <si>
+    <t>Jesper Lindstrand</t>
+  </si>
+  <si>
+    <t>jeslinds@kth.se</t>
+  </si>
+  <si>
+    <t>Astrid Lundman</t>
+  </si>
+  <si>
+    <t>aslundm@kth.se</t>
+  </si>
+  <si>
+    <t>Joel Wahlstein</t>
+  </si>
+  <si>
+    <t>joelwah@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 26</t>
+  </si>
+  <si>
+    <t>Nicole Rigogianis</t>
+  </si>
+  <si>
+    <t>nicoleri@kth.se</t>
+  </si>
+  <si>
+    <t>Sofia Strandell Dalius</t>
+  </si>
+  <si>
+    <t>dalius@kth.se</t>
+  </si>
+  <si>
+    <t>Astrid Ålander</t>
+  </si>
+  <si>
+    <t>astridal@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 27</t>
+  </si>
+  <si>
+    <t>Rebecca Katsivelis</t>
+  </si>
+  <si>
+    <t>rebkat@kth.se</t>
+  </si>
+  <si>
+    <t>Jonathan Kaya</t>
+  </si>
+  <si>
+    <t>jkay@kth.se</t>
+  </si>
+  <si>
+    <t>Sham Mati</t>
+  </si>
+  <si>
+    <t>smati@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 28</t>
+  </si>
+  <si>
+    <t>Dennis Allingmon</t>
+  </si>
+  <si>
+    <t>denall@kth.se</t>
+  </si>
+  <si>
+    <t>Victor Holmen</t>
+  </si>
+  <si>
+    <t>vholme@kth.se</t>
+  </si>
+  <si>
+    <t>Matthis Schilke</t>
+  </si>
+  <si>
+    <t>matthiss@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 29</t>
+  </si>
+  <si>
+    <t>Axel Abrahmsén</t>
+  </si>
+  <si>
+    <t>axelab@kth.se</t>
+  </si>
+  <si>
+    <t>Markus Gustafsson</t>
+  </si>
+  <si>
+    <t>markgust@kth.se</t>
+  </si>
+  <si>
+    <t>Johannes Owusu</t>
+  </si>
+  <si>
+    <t>jowusu@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 30</t>
+  </si>
+  <si>
+    <t>Jacob Bergström</t>
+  </si>
+  <si>
+    <t>jacb@kth.se</t>
+  </si>
+  <si>
+    <t>Jonathan Blidhem</t>
+  </si>
+  <si>
+    <t>blidhem@kth.se</t>
+  </si>
+  <si>
+    <t>Clas Westerberg</t>
+  </si>
+  <si>
+    <t>claswe@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 31</t>
+  </si>
+  <si>
+    <t>Yashar Khezri Kraim</t>
+  </si>
+  <si>
+    <t>yasharkk@kth.se</t>
+  </si>
+  <si>
+    <t>Cassandra Steffensen</t>
+  </si>
+  <si>
+    <t>casste@kth.se</t>
+  </si>
+  <si>
+    <t>Grupp 32</t>
+  </si>
+  <si>
+    <t>Henrik Ek</t>
+  </si>
+  <si>
+    <t>henek@kth.se</t>
+  </si>
+  <si>
+    <t>Julia Larsson</t>
+  </si>
+  <si>
+    <t>julialar@kth.se</t>
+  </si>
+  <si>
+    <t>Ida Tallskog</t>
+  </si>
+  <si>
+    <t>idata@kth.se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="16"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,8 +720,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,31 +1062,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B159"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>191</v>
+      </c>
+      <c r="B138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>202</v>
+      </c>
+      <c r="B145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>205</v>
+      </c>
+      <c r="B148" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>209</v>
+      </c>
+      <c r="B150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>212</v>
+      </c>
+      <c r="B153" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>219</v>
+      </c>
+      <c r="B158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>221</v>
+      </c>
+      <c r="B159" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
 </file>
--- a/myapp/streamed-workbook.xlsx
+++ b/myapp/streamed-workbook.xlsx
@@ -11,12 +11,663 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="403">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Grupp 1</t>
+    <t>Övningsgrupp A</t>
+  </si>
+  <si>
+    <t>Moa Ahlenius</t>
+  </si>
+  <si>
+    <t>moaahl@kth.se</t>
+  </si>
+  <si>
+    <t>Sidra Akbar</t>
+  </si>
+  <si>
+    <t>sakbar@kth.se</t>
+  </si>
+  <si>
+    <t>Sanar Al-Najjar</t>
+  </si>
+  <si>
+    <t>sanaran@kth.se</t>
+  </si>
+  <si>
+    <t>Ahmad Al-Shakarchi</t>
+  </si>
+  <si>
+    <t>ahmas@kth.se</t>
+  </si>
+  <si>
+    <t>Dennis Allingmon</t>
+  </si>
+  <si>
+    <t>denall@kth.se</t>
+  </si>
+  <si>
+    <t>Julia Andersson</t>
+  </si>
+  <si>
+    <t>juande@kth.se</t>
+  </si>
+  <si>
+    <t>Malin Andersson</t>
+  </si>
+  <si>
+    <t>malinan5@kth.se</t>
+  </si>
+  <si>
+    <t>Sara Andersson</t>
+  </si>
+  <si>
+    <t>saraa7@kth.se</t>
+  </si>
+  <si>
+    <t>Karolin Ayarra De La Borbolla</t>
+  </si>
+  <si>
+    <t>kadlb@kth.se</t>
+  </si>
+  <si>
+    <t>Anton Barkelius</t>
+  </si>
+  <si>
+    <t>antonbar@kth.se</t>
+  </si>
+  <si>
+    <t>David Bechara</t>
+  </si>
+  <si>
+    <t>dbechara@kth.se</t>
+  </si>
+  <si>
+    <t>Rami Ben Youssef</t>
+  </si>
+  <si>
+    <t>ramiby@kth.se</t>
+  </si>
+  <si>
+    <t>Fredrik Bergman</t>
+  </si>
+  <si>
+    <t>frbergma@kth.se</t>
+  </si>
+  <si>
+    <t>Hanna Bergman</t>
+  </si>
+  <si>
+    <t>habergma@kth.se</t>
+  </si>
+  <si>
+    <t>Julia Bivrin</t>
+  </si>
+  <si>
+    <t>bivrin@kth.se</t>
+  </si>
+  <si>
+    <t>Simon Blackman</t>
+  </si>
+  <si>
+    <t>simonbla@kth.se</t>
+  </si>
+  <si>
+    <t>Christoffer Brokking</t>
+  </si>
+  <si>
+    <t>brokk@kth.se</t>
+  </si>
+  <si>
+    <t>Mathias Carlie</t>
+  </si>
+  <si>
+    <t>carlie@kth.se</t>
+  </si>
+  <si>
+    <t>Gustav Carlsson</t>
+  </si>
+  <si>
+    <t>gcarls@kth.se</t>
+  </si>
+  <si>
+    <t>Mathias Carlsson</t>
+  </si>
+  <si>
+    <t>mathc@kth.se</t>
+  </si>
+  <si>
+    <t>Jasmin David</t>
+  </si>
+  <si>
+    <t>jasmind@kth.se</t>
+  </si>
+  <si>
+    <t>Adam Denlert</t>
+  </si>
+  <si>
+    <t>denlert@kth.se</t>
+  </si>
+  <si>
+    <t>Johanna Dyberg</t>
+  </si>
+  <si>
+    <t>jdy@kth.se</t>
+  </si>
+  <si>
+    <t>Viktor Edlund</t>
+  </si>
+  <si>
+    <t>vedl@kth.se</t>
+  </si>
+  <si>
+    <t>Elsa Einarsson</t>
+  </si>
+  <si>
+    <t>elsaein@kth.se</t>
+  </si>
+  <si>
+    <t>Henrik Ek</t>
+  </si>
+  <si>
+    <t>henek@kth.se</t>
+  </si>
+  <si>
+    <t>Hana Eliassi Sarzali</t>
+  </si>
+  <si>
+    <t>hanaes@kth.se</t>
+  </si>
+  <si>
+    <t>Gustaf Ericson</t>
+  </si>
+  <si>
+    <t>gericson@kth.se</t>
+  </si>
+  <si>
+    <t>Jesper Eriksson</t>
+  </si>
+  <si>
+    <t>jespeer@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Fadhil</t>
+  </si>
+  <si>
+    <t>mohabb@kth.se</t>
+  </si>
+  <si>
+    <t>Matilda Ferlander</t>
+  </si>
+  <si>
+    <t>matfer@kth.se</t>
+  </si>
+  <si>
+    <t>Noor Feyli</t>
+  </si>
+  <si>
+    <t>noorf@kth.se</t>
+  </si>
+  <si>
+    <t>Hajna Finta</t>
+  </si>
+  <si>
+    <t>hajna@kth.se</t>
+  </si>
+  <si>
+    <t>Jenny Forsberg</t>
+  </si>
+  <si>
+    <t>jeforsbe@kth.se</t>
+  </si>
+  <si>
+    <t>Matthias Forsberg</t>
+  </si>
+  <si>
+    <t>mattf@kth.se</t>
+  </si>
+  <si>
+    <t>Anton Frank</t>
+  </si>
+  <si>
+    <t>anfra@kth.se</t>
+  </si>
+  <si>
+    <t>Andreas Fristedt</t>
+  </si>
+  <si>
+    <t>friste@kth.se</t>
+  </si>
+  <si>
+    <t>Jenny Fält</t>
+  </si>
+  <si>
+    <t>jenfal@kth.se</t>
+  </si>
+  <si>
+    <t>Patrik Grenert</t>
+  </si>
+  <si>
+    <t>grenert@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Gustafson</t>
+  </si>
+  <si>
+    <t>danielg5@kth.se</t>
+  </si>
+  <si>
+    <t>Markus Gustafsson</t>
+  </si>
+  <si>
+    <t>markgust@kth.se</t>
+  </si>
+  <si>
+    <t>Lars Peter Hansson</t>
+  </si>
+  <si>
+    <t>lpha@kth.se</t>
+  </si>
+  <si>
+    <t>Stella Harrison</t>
+  </si>
+  <si>
+    <t>stellah@kth.se</t>
+  </si>
+  <si>
+    <t>Victor Holmen</t>
+  </si>
+  <si>
+    <t>vholme@kth.se</t>
+  </si>
+  <si>
+    <t>William Hultström</t>
+  </si>
+  <si>
+    <t>wilhul@kth.se</t>
+  </si>
+  <si>
+    <t>Pontus Håkansson</t>
+  </si>
+  <si>
+    <t>phaka@kth.se</t>
+  </si>
+  <si>
+    <t>Nathalie Isaksson</t>
+  </si>
+  <si>
+    <t>natisa@kth.se</t>
+  </si>
+  <si>
+    <t>Hanna Jarlegård</t>
+  </si>
+  <si>
+    <t>hannajar@kth.se</t>
+  </si>
+  <si>
+    <t>Madeleine Jillersberg</t>
+  </si>
+  <si>
+    <t>mji@kth.se</t>
+  </si>
+  <si>
+    <t>Erik Johansson</t>
+  </si>
+  <si>
+    <t>erikjo5@kth.se</t>
+  </si>
+  <si>
+    <t>Kajsa Jonsson</t>
+  </si>
+  <si>
+    <t>kajonss@kth.se</t>
+  </si>
+  <si>
+    <t>Britta Josephson</t>
+  </si>
+  <si>
+    <t>brittajo@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Kamali</t>
+  </si>
+  <si>
+    <t>dkamali@kth.se</t>
+  </si>
+  <si>
+    <t>Edvin Kamme</t>
+  </si>
+  <si>
+    <t>kamme@kth.se</t>
+  </si>
+  <si>
+    <t>Mikael Karlsson</t>
+  </si>
+  <si>
+    <t>mk9@kth.se</t>
+  </si>
+  <si>
+    <t>Aylin Kaya</t>
+  </si>
+  <si>
+    <t>aylink@kth.se</t>
+  </si>
+  <si>
+    <t>Jonathan Kaya</t>
+  </si>
+  <si>
+    <t>jkay@kth.se</t>
+  </si>
+  <si>
+    <t>Soran Khalaf</t>
+  </si>
+  <si>
+    <t>sorank@kth.se</t>
+  </si>
+  <si>
+    <t>Mohammed Khalil Khazzal</t>
+  </si>
+  <si>
+    <t>mohkk@kth.se</t>
+  </si>
+  <si>
+    <t>Erik Kolmodin</t>
+  </si>
+  <si>
+    <t>erikkolm@kth.se</t>
+  </si>
+  <si>
+    <t>Hanna Käck</t>
+  </si>
+  <si>
+    <t>hkack@kth.se</t>
+  </si>
+  <si>
+    <t>Bastien Lacombe</t>
+  </si>
+  <si>
+    <t>bastienl@kth.se</t>
+  </si>
+  <si>
+    <t>Andrea Larsson</t>
+  </si>
+  <si>
+    <t>andreal2@kth.se</t>
+  </si>
+  <si>
+    <t>Fredrik Larsson</t>
+  </si>
+  <si>
+    <t>flar9@kth.se</t>
+  </si>
+  <si>
+    <t>Julia Larsson</t>
+  </si>
+  <si>
+    <t>julialar@kth.se</t>
+  </si>
+  <si>
+    <t>Ann-Sofi Lenander</t>
+  </si>
+  <si>
+    <t>aslen@kth.se</t>
+  </si>
+  <si>
+    <t>Gustav Lidberg</t>
+  </si>
+  <si>
+    <t>glidberg@kth.se</t>
+  </si>
+  <si>
+    <t>Simon Lindblad</t>
+  </si>
+  <si>
+    <t>silindb@kth.se</t>
+  </si>
+  <si>
+    <t>Joakim Lundberg</t>
+  </si>
+  <si>
+    <t>joalundb@kth.se</t>
+  </si>
+  <si>
+    <t>Astrid Lundman</t>
+  </si>
+  <si>
+    <t>aslundm@kth.se</t>
+  </si>
+  <si>
+    <t>Goncagül Maasoglu</t>
+  </si>
+  <si>
+    <t>goncagul@kth.se</t>
+  </si>
+  <si>
+    <t>Eva Malo</t>
+  </si>
+  <si>
+    <t>emalo@kth.se</t>
+  </si>
+  <si>
+    <t>Sham Mati</t>
+  </si>
+  <si>
+    <t>smati@kth.se</t>
+  </si>
+  <si>
+    <t>Meliina Lara Matikainen</t>
+  </si>
+  <si>
+    <t>meliina@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Max</t>
+  </si>
+  <si>
+    <t>dmax@kth.se</t>
+  </si>
+  <si>
+    <t>Hauchin Mokrian</t>
+  </si>
+  <si>
+    <t>hauchin@kth.se</t>
+  </si>
+  <si>
+    <t>Elina Myhr</t>
+  </si>
+  <si>
+    <t>emyhr@kth.se</t>
+  </si>
+  <si>
+    <t>Theodor Naumann</t>
+  </si>
+  <si>
+    <t>tnaumann@kth.se</t>
+  </si>
+  <si>
+    <t>Henrik Nilsson</t>
+  </si>
+  <si>
+    <t>henrikn5@kth.se</t>
+  </si>
+  <si>
+    <t>Jens Nilsson</t>
+  </si>
+  <si>
+    <t>jensn2@kth.se</t>
+  </si>
+  <si>
+    <t>Maria Nilsson</t>
+  </si>
+  <si>
+    <t>mariani7@kth.se</t>
+  </si>
+  <si>
+    <t>Karl Norberg</t>
+  </si>
+  <si>
+    <t>karlnorb@kth.se</t>
+  </si>
+  <si>
+    <t>Josefin Olofsson</t>
+  </si>
+  <si>
+    <t>josolof@kth.se</t>
+  </si>
+  <si>
+    <t>Martin Oscarsson</t>
+  </si>
+  <si>
+    <t>moscar@kth.se</t>
+  </si>
+  <si>
+    <t>Johannes Owusu</t>
+  </si>
+  <si>
+    <t>jowusu@kth.se</t>
+  </si>
+  <si>
+    <t>Martin Palm</t>
+  </si>
+  <si>
+    <t>martpal@kth.se</t>
+  </si>
+  <si>
+    <t>Andrea Paulsson</t>
+  </si>
+  <si>
+    <t>apauls@kth.se</t>
+  </si>
+  <si>
+    <t>Saman Penahi</t>
+  </si>
+  <si>
+    <t>penahi@kth.se</t>
+  </si>
+  <si>
+    <t>Joel Portinson</t>
+  </si>
+  <si>
+    <t>joelpor@kth.se</t>
+  </si>
+  <si>
+    <t>Gyan Prakash</t>
+  </si>
+  <si>
+    <t>gyanp@kth.se</t>
+  </si>
+  <si>
+    <t>Elin Rambäck</t>
+  </si>
+  <si>
+    <t>ramback@kth.se</t>
+  </si>
+  <si>
+    <t>Victoria Remmel</t>
+  </si>
+  <si>
+    <t>remmel@kth.se</t>
+  </si>
+  <si>
+    <t>Jonatan Ringaby</t>
+  </si>
+  <si>
+    <t>jringaby@kth.se</t>
+  </si>
+  <si>
+    <t>Sebastian Tansen Rose</t>
+  </si>
+  <si>
+    <t>srose@kth.se</t>
+  </si>
+  <si>
+    <t>Joel Rosing</t>
+  </si>
+  <si>
+    <t>rosing@kth.se</t>
+  </si>
+  <si>
+    <t>Eli Rätväg</t>
+  </si>
+  <si>
+    <t>ratvag@kth.se</t>
+  </si>
+  <si>
+    <t>Bala Sadik Faqé</t>
+  </si>
+  <si>
+    <t>balasf@kth.se</t>
+  </si>
+  <si>
+    <t>Anna Selander</t>
+  </si>
+  <si>
+    <t>annsel@kth.se</t>
+  </si>
+  <si>
+    <t>Omar Sharif</t>
+  </si>
+  <si>
+    <t>osharif@kth.se</t>
+  </si>
+  <si>
+    <t>Andrea Sillén</t>
+  </si>
+  <si>
+    <t>asillen@kth.se</t>
+  </si>
+  <si>
+    <t>Övningsgrupp B</t>
+  </si>
+  <si>
+    <t>Asma Abdulkadir Ismail</t>
+  </si>
+  <si>
+    <t>asmaai@kth.se</t>
+  </si>
+  <si>
+    <t>Axel Abrahmsén</t>
+  </si>
+  <si>
+    <t>axelab@kth.se</t>
+  </si>
+  <si>
+    <t>Ayub Aden</t>
+  </si>
+  <si>
+    <t>ayubaden@kth.se</t>
+  </si>
+  <si>
+    <t>Max Aggring</t>
+  </si>
+  <si>
+    <t>aggring@kth.se</t>
+  </si>
+  <si>
+    <t>Martina Andersson</t>
+  </si>
+  <si>
+    <t>marand5@kth.se</t>
+  </si>
+  <si>
+    <t>Nathalie Andersson</t>
+  </si>
+  <si>
+    <t>naande@kth.se</t>
+  </si>
+  <si>
+    <t>Rickard Berg</t>
+  </si>
+  <si>
+    <t>ricbe@kth.se</t>
+  </si>
+  <si>
+    <t>Stefan Berg</t>
+  </si>
+  <si>
+    <t>stefb@kth.se</t>
   </si>
   <si>
     <t>Jacob Bergström</t>
@@ -25,10 +676,514 @@
     <t>jacb@kth.se</t>
   </si>
   <si>
-    <t>Sanna Göthlin</t>
-  </si>
-  <si>
-    <t>sgothlin@kth.se</t>
+    <t>Jonathan Bjerkensjö</t>
+  </si>
+  <si>
+    <t>jonbje@kth.se</t>
+  </si>
+  <si>
+    <t>Axel Bjöörn</t>
+  </si>
+  <si>
+    <t>axebjo@kth.se</t>
+  </si>
+  <si>
+    <t>Jonathan Blidhem</t>
+  </si>
+  <si>
+    <t>blidhem@kth.se</t>
+  </si>
+  <si>
+    <t>Fredrik Blomqvist</t>
+  </si>
+  <si>
+    <t>fblomqv@kth.se</t>
+  </si>
+  <si>
+    <t>Martin Bratt</t>
+  </si>
+  <si>
+    <t>mabratt@kth.se</t>
+  </si>
+  <si>
+    <t>Titti Broman</t>
+  </si>
+  <si>
+    <t>tittib@kth.se</t>
+  </si>
+  <si>
+    <t>Zana Büyükkaya</t>
+  </si>
+  <si>
+    <t>zanab@kth.se</t>
+  </si>
+  <si>
+    <t>Karl Bäckström</t>
+  </si>
+  <si>
+    <t>karlbac@kth.se</t>
+  </si>
+  <si>
+    <t>Linus Bäckström</t>
+  </si>
+  <si>
+    <t>linbac@kth.se</t>
+  </si>
+  <si>
+    <t>Isabella Carlbom</t>
+  </si>
+  <si>
+    <t>isca@kth.se</t>
+  </si>
+  <si>
+    <t>Frida Carlsson</t>
+  </si>
+  <si>
+    <t>fricar@kth.se</t>
+  </si>
+  <si>
+    <t>Adam Croce</t>
+  </si>
+  <si>
+    <t>acroce@kth.se</t>
+  </si>
+  <si>
+    <t>Teresa Echeverria Villegas</t>
+  </si>
+  <si>
+    <t>teresaev@kth.se</t>
+  </si>
+  <si>
+    <t>Klara Eklind</t>
+  </si>
+  <si>
+    <t>klaraek@kth.se</t>
+  </si>
+  <si>
+    <t>Anna Engblom</t>
+  </si>
+  <si>
+    <t>annaengb@kth.se</t>
+  </si>
+  <si>
+    <t>Karl Enges</t>
+  </si>
+  <si>
+    <t>enges@kth.se</t>
+  </si>
+  <si>
+    <t>Ylva Eriksson Langett</t>
+  </si>
+  <si>
+    <t>langett@kth.se</t>
+  </si>
+  <si>
+    <t>Redoz Faraydoun Muhammed</t>
+  </si>
+  <si>
+    <t>redoz@kth.se</t>
+  </si>
+  <si>
+    <t>Sandra Fiedorowicz</t>
+  </si>
+  <si>
+    <t>sandrafi@kth.se</t>
+  </si>
+  <si>
+    <t>Sofia Fjelkestam</t>
+  </si>
+  <si>
+    <t>sofiafj@kth.se</t>
+  </si>
+  <si>
+    <t>Anton Fjodorov</t>
+  </si>
+  <si>
+    <t>fjodorov@kth.se</t>
+  </si>
+  <si>
+    <t>Ellen Gegerfelt</t>
+  </si>
+  <si>
+    <t>ellenge@kth.se</t>
+  </si>
+  <si>
+    <t>Joacim Gärds</t>
+  </si>
+  <si>
+    <t>jgards@kth.se</t>
+  </si>
+  <si>
+    <t>Sylvia Hamberg</t>
+  </si>
+  <si>
+    <t>sylviah@kth.se</t>
+  </si>
+  <si>
+    <t>Caroline Hansols</t>
+  </si>
+  <si>
+    <t>chansols@kth.se</t>
+  </si>
+  <si>
+    <t>Alva Hasselqvist</t>
+  </si>
+  <si>
+    <t>alvaha@kth.se</t>
+  </si>
+  <si>
+    <t>Victor Granlund Hedén</t>
+  </si>
+  <si>
+    <t>vheden@kth.se</t>
+  </si>
+  <si>
+    <t>Patrik Hedlund</t>
+  </si>
+  <si>
+    <t>phedlu@kth.se</t>
+  </si>
+  <si>
+    <t>Isak Hertzén</t>
+  </si>
+  <si>
+    <t>ihertzen@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Hjorth</t>
+  </si>
+  <si>
+    <t>dhjorth@kth.se</t>
+  </si>
+  <si>
+    <t>Otto Holmberg</t>
+  </si>
+  <si>
+    <t>ottoho@kth.se</t>
+  </si>
+  <si>
+    <t>Alexander Holmblad</t>
+  </si>
+  <si>
+    <t>holmbla@kth.se</t>
+  </si>
+  <si>
+    <t>August Isacsson</t>
+  </si>
+  <si>
+    <t>augusti@kth.se</t>
+  </si>
+  <si>
+    <t>Erik Isberg</t>
+  </si>
+  <si>
+    <t>erikisb@kth.se</t>
+  </si>
+  <si>
+    <t>Rita Ishak</t>
+  </si>
+  <si>
+    <t>ritai@kth.se</t>
+  </si>
+  <si>
+    <t>Madeleine Jakobik</t>
+  </si>
+  <si>
+    <t>mjakobik@kth.se</t>
+  </si>
+  <si>
+    <t>Charlotte Jedlöv</t>
+  </si>
+  <si>
+    <t>cjedlov@kth.se</t>
+  </si>
+  <si>
+    <t>Jarl Jensen</t>
+  </si>
+  <si>
+    <t>jarlj@kth.se</t>
+  </si>
+  <si>
+    <t>Emil Johansson</t>
+  </si>
+  <si>
+    <t>emilj4@kth.se</t>
+  </si>
+  <si>
+    <t>Johanna Johansson</t>
+  </si>
+  <si>
+    <t>jjo8@kth.se</t>
+  </si>
+  <si>
+    <t>Måns Johansson</t>
+  </si>
+  <si>
+    <t>manjoh@kth.se</t>
+  </si>
+  <si>
+    <t>Wilhelm Jonasson</t>
+  </si>
+  <si>
+    <t>wiljon@kth.se</t>
+  </si>
+  <si>
+    <t>Christian Jönsson</t>
+  </si>
+  <si>
+    <t>cjon2@kth.se</t>
+  </si>
+  <si>
+    <t>Alvin Kaspo</t>
+  </si>
+  <si>
+    <t>alvink@kth.se</t>
+  </si>
+  <si>
+    <t>Rebecca Katsivelis</t>
+  </si>
+  <si>
+    <t>rebkat@kth.se</t>
+  </si>
+  <si>
+    <t>Yashar Khezri Kraim</t>
+  </si>
+  <si>
+    <t>yasharkk@kth.se</t>
+  </si>
+  <si>
+    <t>Josefin Wiklund Klingbjer</t>
+  </si>
+  <si>
+    <t>jwkl@kth.se</t>
+  </si>
+  <si>
+    <t>Özge Koyuncu</t>
+  </si>
+  <si>
+    <t>koyuncu@kth.se</t>
+  </si>
+  <si>
+    <t>Laura Browning Lagerfeldt</t>
+  </si>
+  <si>
+    <t>laurala@kth.se</t>
+  </si>
+  <si>
+    <t>Fredrik Landelius</t>
+  </si>
+  <si>
+    <t>fland@kth.se</t>
+  </si>
+  <si>
+    <t>Ludwig Lanning Von Werder</t>
+  </si>
+  <si>
+    <t>lvw@kth.se</t>
+  </si>
+  <si>
+    <t>Pamela Likrama</t>
+  </si>
+  <si>
+    <t>likrama@kth.se</t>
+  </si>
+  <si>
+    <t>Albin Lillieberg</t>
+  </si>
+  <si>
+    <t>albinli@kth.se</t>
+  </si>
+  <si>
+    <t>Kristina E Lindblad</t>
+  </si>
+  <si>
+    <t>keli@kth.se</t>
+  </si>
+  <si>
+    <t>Isabelle Lindbäck</t>
+  </si>
+  <si>
+    <t>ilindba@kth.se</t>
+  </si>
+  <si>
+    <t>Hanna Lindfors</t>
+  </si>
+  <si>
+    <t>hlindfor@kth.se</t>
+  </si>
+  <si>
+    <t>Richard Lindqvist</t>
+  </si>
+  <si>
+    <t>rilindq@kth.se</t>
+  </si>
+  <si>
+    <t>Jesper Lindstrand</t>
+  </si>
+  <si>
+    <t>jeslinds@kth.se</t>
+  </si>
+  <si>
+    <t>Isak Ljungström</t>
+  </si>
+  <si>
+    <t>isaklj@kth.se</t>
+  </si>
+  <si>
+    <t>Ludvig Lundberg</t>
+  </si>
+  <si>
+    <t>lulund@kth.se</t>
+  </si>
+  <si>
+    <t>Hedda Magnusson</t>
+  </si>
+  <si>
+    <t>heddama@kth.se</t>
+  </si>
+  <si>
+    <t>Linde Mattsson</t>
+  </si>
+  <si>
+    <t>lindemat@kth.se</t>
+  </si>
+  <si>
+    <t>David Melander</t>
+  </si>
+  <si>
+    <t>davidmel@kth.se</t>
+  </si>
+  <si>
+    <t>Zeinab Mirzahassanagha</t>
+  </si>
+  <si>
+    <t>zeinabm@kth.se</t>
+  </si>
+  <si>
+    <t>Samuel Myhrer</t>
+  </si>
+  <si>
+    <t>smyhrer@kth.se</t>
+  </si>
+  <si>
+    <t>Carl Nielsen</t>
+  </si>
+  <si>
+    <t>carlnie@kth.se</t>
+  </si>
+  <si>
+    <t>Emelie Nilsson Gulbub</t>
+  </si>
+  <si>
+    <t>gulbub@kth.se</t>
+  </si>
+  <si>
+    <t>Fredrik Nilsson</t>
+  </si>
+  <si>
+    <t>fn3@kth.se</t>
+  </si>
+  <si>
+    <t>Åsa Norling</t>
+  </si>
+  <si>
+    <t>asanorl@kth.se</t>
+  </si>
+  <si>
+    <t>Rasmus Näsman</t>
+  </si>
+  <si>
+    <t>rasmusna@kth.se</t>
+  </si>
+  <si>
+    <t>Siri Nöjd</t>
+  </si>
+  <si>
+    <t>snojd@kth.se</t>
+  </si>
+  <si>
+    <t>Lukas Olofsson</t>
+  </si>
+  <si>
+    <t>lukasol@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Lidström Olsson</t>
+  </si>
+  <si>
+    <t>danieol@kth.se</t>
+  </si>
+  <si>
+    <t>Emil Olsson</t>
+  </si>
+  <si>
+    <t>emolsson@kth.se</t>
+  </si>
+  <si>
+    <t>Mustafa Paikar</t>
+  </si>
+  <si>
+    <t>paikar@kth.se</t>
+  </si>
+  <si>
+    <t>John Pakkala</t>
+  </si>
+  <si>
+    <t>jmp@kth.se</t>
+  </si>
+  <si>
+    <t>Pontus Persson</t>
+  </si>
+  <si>
+    <t>popers@kth.se</t>
+  </si>
+  <si>
+    <t>Hugo Pettersson</t>
+  </si>
+  <si>
+    <t>hugope@kth.se</t>
+  </si>
+  <si>
+    <t>Viktor Popovic</t>
+  </si>
+  <si>
+    <t>vpopovic@kth.se</t>
+  </si>
+  <si>
+    <t>Kiarash Pourfallah</t>
+  </si>
+  <si>
+    <t>kiarashp@kth.se</t>
+  </si>
+  <si>
+    <t>Christian Ramel</t>
+  </si>
+  <si>
+    <t>cramel@kth.se</t>
+  </si>
+  <si>
+    <t>Fredrika Rasmusson</t>
+  </si>
+  <si>
+    <t>frra@kth.se</t>
+  </si>
+  <si>
+    <t>Sarra Reguig</t>
+  </si>
+  <si>
+    <t>reguig@kth.se</t>
+  </si>
+  <si>
+    <t>Beatrice Ribbefjord</t>
+  </si>
+  <si>
+    <t>brib@kth.se</t>
+  </si>
+  <si>
+    <t>Johan Rickardsson</t>
+  </si>
+  <si>
+    <t>johanric@kth.se</t>
   </si>
   <si>
     <t>Nicole Rigogianis</t>
@@ -37,91 +1192,10 @@
     <t>nicoleri@kth.se</t>
   </si>
   <si>
-    <t>Linus Svensson</t>
-  </si>
-  <si>
-    <t>linussv@kth.se</t>
-  </si>
-  <si>
-    <t>Carl Otto Tuneld</t>
-  </si>
-  <si>
-    <t>tuneld@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 2</t>
-  </si>
-  <si>
-    <t>Mikael Karlsson</t>
-  </si>
-  <si>
-    <t>mk9@kth.se</t>
-  </si>
-  <si>
-    <t>Richard Lindqvist</t>
-  </si>
-  <si>
-    <t>rilindq@kth.se</t>
-  </si>
-  <si>
-    <t>Jens Nilsson</t>
-  </si>
-  <si>
-    <t>jensn2@kth.se</t>
-  </si>
-  <si>
-    <t>Johan Svanberg</t>
-  </si>
-  <si>
-    <t>jsvanb@kth.se</t>
-  </si>
-  <si>
-    <t>Linnea Ölund</t>
-  </si>
-  <si>
-    <t>linolu@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 3</t>
-  </si>
-  <si>
-    <t>Oscar Svanberg</t>
-  </si>
-  <si>
-    <t>osva@kth.se</t>
-  </si>
-  <si>
-    <t>Simon Svedman Lindros</t>
-  </si>
-  <si>
-    <t>ssvedman@kth.se</t>
-  </si>
-  <si>
-    <t>Ida Tallskog</t>
-  </si>
-  <si>
-    <t>idata@kth.se</t>
-  </si>
-  <si>
-    <t>August Vilhelmson</t>
-  </si>
-  <si>
-    <t>augustv@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 4</t>
-  </si>
-  <si>
-    <t>Fredrik Blomqvist</t>
-  </si>
-  <si>
-    <t>fblomqv@kth.se</t>
-  </si>
-  <si>
-    <t>Åsa Norling</t>
-  </si>
-  <si>
-    <t>asanorl@kth.se</t>
+    <t>Daniel Rosenholm</t>
+  </si>
+  <si>
+    <t>rosenh@kth.se</t>
   </si>
   <si>
     <t>Paulin Singh</t>
@@ -130,76 +1204,22 @@
     <t>paulins@kth.se</t>
   </si>
   <si>
+    <t>Olivia Sjöwall</t>
+  </si>
+  <si>
+    <t>osjovall@kth.se</t>
+  </si>
+  <si>
+    <t>Anna Sköld</t>
+  </si>
+  <si>
+    <t>anskol@kth.se</t>
+  </si>
+  <si>
     <t>Michelle Almgren Snögren</t>
   </si>
   <si>
     <t>msnogren@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 5</t>
-  </si>
-  <si>
-    <t>Zhong Feng</t>
-  </si>
-  <si>
-    <t>zhongf@kth.se</t>
-  </si>
-  <si>
-    <t>Markus Gustafsson</t>
-  </si>
-  <si>
-    <t>markgust@kth.se</t>
-  </si>
-  <si>
-    <t>Lucas Jurado Sjölund</t>
-  </si>
-  <si>
-    <t>ljurado@kth.se</t>
-  </si>
-  <si>
-    <t>Daniel Max</t>
-  </si>
-  <si>
-    <t>dmax@kth.se</t>
-  </si>
-  <si>
-    <t>Carl Ullström</t>
-  </si>
-  <si>
-    <t>carlul@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 6</t>
-  </si>
-  <si>
-    <t>Anna Engblom</t>
-  </si>
-  <si>
-    <t>annaengb@kth.se</t>
-  </si>
-  <si>
-    <t>Victor Holmen</t>
-  </si>
-  <si>
-    <t>vholme@kth.se</t>
-  </si>
-  <si>
-    <t>August Isacsson</t>
-  </si>
-  <si>
-    <t>augusti@kth.se</t>
-  </si>
-  <si>
-    <t>Måns Johansson</t>
-  </si>
-  <si>
-    <t>manjoh@kth.se</t>
-  </si>
-  <si>
-    <t>Malin Strömberg</t>
-  </si>
-  <si>
-    <t>malstro@kth.se</t>
   </si>
 </sst>
 </file>
@@ -581,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B204"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -634,238 +1654,1574 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>345</v>
+      </c>
+      <c r="B176" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>349</v>
+      </c>
+      <c r="B178" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>355</v>
+      </c>
+      <c r="B181" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>359</v>
+      </c>
+      <c r="B183" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>367</v>
+      </c>
+      <c r="B187" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>369</v>
+      </c>
+      <c r="B188" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>371</v>
+      </c>
+      <c r="B189" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>375</v>
+      </c>
+      <c r="B191" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>399</v>
+      </c>
+      <c r="B203" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>401</v>
+      </c>
+      <c r="B204" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/streamed-workbook.xlsx
+++ b/myapp/streamed-workbook.xlsx
@@ -11,195 +11,1143 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="379">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Grupp 1</t>
-  </si>
-  <si>
-    <t>Jacob Bergström</t>
-  </si>
-  <si>
-    <t>jacb@kth.se</t>
-  </si>
-  <si>
-    <t>Sanna Göthlin</t>
-  </si>
-  <si>
-    <t>sgothlin@kth.se</t>
-  </si>
-  <si>
-    <t>Nicole Rigogianis</t>
-  </si>
-  <si>
-    <t>nicoleri@kth.se</t>
-  </si>
-  <si>
-    <t>Linus Svensson</t>
-  </si>
-  <si>
-    <t>linussv@kth.se</t>
-  </si>
-  <si>
-    <t>Carl Otto Tuneld</t>
-  </si>
-  <si>
-    <t>tuneld@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 2</t>
-  </si>
-  <si>
-    <t>Mikael Karlsson</t>
-  </si>
-  <si>
-    <t>mk9@kth.se</t>
-  </si>
-  <si>
-    <t>Richard Lindqvist</t>
-  </si>
-  <si>
-    <t>rilindq@kth.se</t>
-  </si>
-  <si>
-    <t>Jens Nilsson</t>
-  </si>
-  <si>
-    <t>jensn2@kth.se</t>
-  </si>
-  <si>
-    <t>Johan Svanberg</t>
-  </si>
-  <si>
-    <t>jsvanb@kth.se</t>
-  </si>
-  <si>
-    <t>Linnea Ölund</t>
-  </si>
-  <si>
-    <t>linolu@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 3</t>
-  </si>
-  <si>
-    <t>Oscar Svanberg</t>
-  </si>
-  <si>
-    <t>osva@kth.se</t>
-  </si>
-  <si>
-    <t>Simon Svedman Lindros</t>
-  </si>
-  <si>
-    <t>ssvedman@kth.se</t>
-  </si>
-  <si>
-    <t>Ida Tallskog</t>
-  </si>
-  <si>
-    <t>idata@kth.se</t>
-  </si>
-  <si>
-    <t>August Vilhelmson</t>
-  </si>
-  <si>
-    <t>augustv@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 4</t>
-  </si>
-  <si>
-    <t>Fredrik Blomqvist</t>
-  </si>
-  <si>
-    <t>fblomqv@kth.se</t>
-  </si>
-  <si>
-    <t>Åsa Norling</t>
-  </si>
-  <si>
-    <t>asanorl@kth.se</t>
-  </si>
-  <si>
-    <t>Paulin Singh</t>
-  </si>
-  <si>
-    <t>paulins@kth.se</t>
-  </si>
-  <si>
-    <t>Michelle Almgren Snögren</t>
-  </si>
-  <si>
-    <t>msnogren@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 5</t>
-  </si>
-  <si>
-    <t>Zhong Feng</t>
-  </si>
-  <si>
-    <t>zhongf@kth.se</t>
-  </si>
-  <si>
-    <t>Markus Gustafsson</t>
-  </si>
-  <si>
-    <t>markgust@kth.se</t>
-  </si>
-  <si>
-    <t>Lucas Jurado Sjölund</t>
-  </si>
-  <si>
-    <t>ljurado@kth.se</t>
-  </si>
-  <si>
-    <t>Daniel Max</t>
-  </si>
-  <si>
-    <t>dmax@kth.se</t>
-  </si>
-  <si>
-    <t>Carl Ullström</t>
-  </si>
-  <si>
-    <t>carlul@kth.se</t>
-  </si>
-  <si>
-    <t>Grupp 6</t>
-  </si>
-  <si>
-    <t>Anna Engblom</t>
-  </si>
-  <si>
-    <t>annaengb@kth.se</t>
-  </si>
-  <si>
-    <t>Victor Holmen</t>
-  </si>
-  <si>
-    <t>vholme@kth.se</t>
-  </si>
-  <si>
-    <t>August Isacsson</t>
-  </si>
-  <si>
-    <t>augusti@kth.se</t>
-  </si>
-  <si>
-    <t>Måns Johansson</t>
-  </si>
-  <si>
-    <t>manjoh@kth.se</t>
-  </si>
-  <si>
-    <t>Malin Strömberg</t>
-  </si>
-  <si>
-    <t>malstro@kth.se</t>
+    <t>Blå 1 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Maman Ahmed</t>
+  </si>
+  <si>
+    <t>mamana@kth.se</t>
+  </si>
+  <si>
+    <t>Aleksi Kinnunen</t>
+  </si>
+  <si>
+    <t>aleksiki@kth.se</t>
+  </si>
+  <si>
+    <t>Lena Medan</t>
+  </si>
+  <si>
+    <t>medan@kth.se</t>
+  </si>
+  <si>
+    <t>Kani Talabani</t>
+  </si>
+  <si>
+    <t>kanit@kth.se</t>
+  </si>
+  <si>
+    <t>Blå 2 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Anja Ericson</t>
+  </si>
+  <si>
+    <t>anjaer@kth.se</t>
+  </si>
+  <si>
+    <t>Muhammad Guyo</t>
+  </si>
+  <si>
+    <t>hassang@kth.se</t>
+  </si>
+  <si>
+    <t>Farah Kassem</t>
+  </si>
+  <si>
+    <t>farahk@kth.se</t>
+  </si>
+  <si>
+    <t>Alina Mansour</t>
+  </si>
+  <si>
+    <t>alinama@kth.se</t>
+  </si>
+  <si>
+    <t>Karolina Näsén</t>
+  </si>
+  <si>
+    <t>knasen@kth.se</t>
+  </si>
+  <si>
+    <t>Blå 3 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>David Svensson</t>
+  </si>
+  <si>
+    <t>davsvens@kth.se</t>
+  </si>
+  <si>
+    <t>Clara Youssef</t>
+  </si>
+  <si>
+    <t>claray@kth.se</t>
+  </si>
+  <si>
+    <t>Ibrahim Youssef</t>
+  </si>
+  <si>
+    <t>iyoussef@kth.se</t>
+  </si>
+  <si>
+    <t>Elin Ånger</t>
+  </si>
+  <si>
+    <t>eanger@kth.se</t>
+  </si>
+  <si>
+    <t>Blå 4 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Blå 5 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Robin Claesson</t>
+  </si>
+  <si>
+    <t>robincla@kth.se</t>
+  </si>
+  <si>
+    <t>Agnes Karlsson</t>
+  </si>
+  <si>
+    <t>agneskar@kth.se</t>
+  </si>
+  <si>
+    <t>Emin Osmic</t>
+  </si>
+  <si>
+    <t>osmic@kth.se</t>
+  </si>
+  <si>
+    <t>Jonas Stener</t>
+  </si>
+  <si>
+    <t>jostener@kth.se</t>
+  </si>
+  <si>
+    <t>Blå 6 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Agnes Ekenberg</t>
+  </si>
+  <si>
+    <t>agneseke@kth.se</t>
+  </si>
+  <si>
+    <t>Rickard Luu</t>
+  </si>
+  <si>
+    <t>rluu@kth.se</t>
+  </si>
+  <si>
+    <t>Hedvig Sandin</t>
+  </si>
+  <si>
+    <t>hsandin@kth.se</t>
+  </si>
+  <si>
+    <t>Blå 7 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Joel Kyläkorpi</t>
+  </si>
+  <si>
+    <t>joelky@kth.se</t>
+  </si>
+  <si>
+    <t>Dawid Mlynarczyk</t>
+  </si>
+  <si>
+    <t>dawidm@kth.se</t>
+  </si>
+  <si>
+    <t>Carolina Offenbacher</t>
+  </si>
+  <si>
+    <t>coff@kth.se</t>
+  </si>
+  <si>
+    <t>Blå 8 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Shirin Ansari</t>
+  </si>
+  <si>
+    <t>shirinan@kth.se</t>
+  </si>
+  <si>
+    <t>Reynaldo Cardenas Sanchez</t>
+  </si>
+  <si>
+    <t>rcs@kth.se</t>
+  </si>
+  <si>
+    <t>Gun Maria Kaneteg</t>
+  </si>
+  <si>
+    <t>gmka@kth.se</t>
+  </si>
+  <si>
+    <t>Tim Landin</t>
+  </si>
+  <si>
+    <t>timlan@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 1 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>David Andersson</t>
+  </si>
+  <si>
+    <t>davida6@kth.se</t>
+  </si>
+  <si>
+    <t>Mirey Artin</t>
+  </si>
+  <si>
+    <t>mireyar@kth.se</t>
+  </si>
+  <si>
+    <t>Henrik Bergström</t>
+  </si>
+  <si>
+    <t>henbergs@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 2 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Lucy Moreau Bruun</t>
+  </si>
+  <si>
+    <t>lbruun@kth.se</t>
+  </si>
+  <si>
+    <t>Katia Calming</t>
+  </si>
+  <si>
+    <t>calming@kth.se</t>
+  </si>
+  <si>
+    <t>Elin Forsberg</t>
+  </si>
+  <si>
+    <t>elforsb@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 3 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Emmy Gustafson</t>
+  </si>
+  <si>
+    <t>emmygu@kth.se</t>
+  </si>
+  <si>
+    <t>Bjondina Hoti</t>
+  </si>
+  <si>
+    <t>bjondina@kth.se</t>
+  </si>
+  <si>
+    <t>Gunnar Wernersson</t>
+  </si>
+  <si>
+    <t>gunwer@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 4 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Andreas Håård</t>
+  </si>
+  <si>
+    <t>ahaard@kth.se</t>
+  </si>
+  <si>
+    <t>Sandra Raheb Khalo</t>
+  </si>
+  <si>
+    <t>sandrark@kth.se</t>
+  </si>
+  <si>
+    <t>John Österholm</t>
+  </si>
+  <si>
+    <t>osterhol@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 5 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Ali Hussein Luay</t>
+  </si>
+  <si>
+    <t>alihl@kth.se</t>
+  </si>
+  <si>
+    <t>Gabriel Manne</t>
+  </si>
+  <si>
+    <t>gmanne@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 6 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Johan Möller</t>
+  </si>
+  <si>
+    <t>jomoll@kth.se</t>
+  </si>
+  <si>
+    <t>David Nilsson</t>
+  </si>
+  <si>
+    <t>davidn2@kth.se</t>
+  </si>
+  <si>
+    <t>Sindri Norrby</t>
+  </si>
+  <si>
+    <t>sindrin@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 7 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Ronja Ottosson</t>
+  </si>
+  <si>
+    <t>ronjao@kth.se</t>
+  </si>
+  <si>
+    <t>Igor Poljutov</t>
+  </si>
+  <si>
+    <t>poljutov@kth.se</t>
+  </si>
+  <si>
+    <t>Johannes Sennerö</t>
+  </si>
+  <si>
+    <t>sennero@kth.se</t>
+  </si>
+  <si>
+    <t>Grön 8 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Edward Sebastian Swaretz</t>
+  </si>
+  <si>
+    <t>essw@kth.se</t>
+  </si>
+  <si>
+    <t>Ivan Söderström</t>
+  </si>
+  <si>
+    <t>ivansod@kth.se</t>
+  </si>
+  <si>
+    <t>Henry Toma</t>
+  </si>
+  <si>
+    <t>htoma@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 1 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Ossian Ahlkvist</t>
+  </si>
+  <si>
+    <t>ossianah@kth.se</t>
+  </si>
+  <si>
+    <t>Josephine Gustavsson</t>
+  </si>
+  <si>
+    <t>josegu@kth.se</t>
+  </si>
+  <si>
+    <t>Nabil Hossain</t>
+  </si>
+  <si>
+    <t>nabilh@kth.se</t>
+  </si>
+  <si>
+    <t>Moa Hägvall</t>
+  </si>
+  <si>
+    <t>mhagvall@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 2 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Meriam Basilious</t>
+  </si>
+  <si>
+    <t>meriamb@kth.se</t>
+  </si>
+  <si>
+    <t>Erik Huss</t>
+  </si>
+  <si>
+    <t>erikhuss@kth.se</t>
+  </si>
+  <si>
+    <t>Diana Radamson</t>
+  </si>
+  <si>
+    <t>radamson@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 3 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Rickard Bengtsson</t>
+  </si>
+  <si>
+    <t>rbengts@kth.se</t>
+  </si>
+  <si>
+    <t>Linnea Bergmark</t>
+  </si>
+  <si>
+    <t>lbergmar@kth.se</t>
+  </si>
+  <si>
+    <t>Gustav Kornher</t>
+  </si>
+  <si>
+    <t>gkornher@kth.se</t>
+  </si>
+  <si>
+    <t>Tanja Marcuz</t>
+  </si>
+  <si>
+    <t>tmarcuz@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 4 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Niklas Bulduk</t>
+  </si>
+  <si>
+    <t>nbulduk@kth.se</t>
+  </si>
+  <si>
+    <t>Cecilia Börjeson</t>
+  </si>
+  <si>
+    <t>cborjes@kth.se</t>
+  </si>
+  <si>
+    <t>Simon Larsson</t>
+  </si>
+  <si>
+    <t>simolar@kth.se</t>
+  </si>
+  <si>
+    <t>Hanna Ritzmo</t>
+  </si>
+  <si>
+    <t>ritzmo@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 5 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Itzana Cerda Gunnarsson</t>
+  </si>
+  <si>
+    <t>itzana@kth.se</t>
+  </si>
+  <si>
+    <t>David Ebenhardt</t>
+  </si>
+  <si>
+    <t>davebe@kth.se</t>
+  </si>
+  <si>
+    <t>Oskar Nilsson</t>
+  </si>
+  <si>
+    <t>osknil@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 6 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Sara Ekelund</t>
+  </si>
+  <si>
+    <t>sareke@kth.se</t>
+  </si>
+  <si>
+    <t>Filip Grgin</t>
+  </si>
+  <si>
+    <t>grgin@kth.se</t>
+  </si>
+  <si>
+    <t>Jonas Rissén</t>
+  </si>
+  <si>
+    <t>rissen@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 7 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Eleonor Von Euler</t>
+  </si>
+  <si>
+    <t>eleve@kth.se</t>
+  </si>
+  <si>
+    <t>Jonas Gummesson</t>
+  </si>
+  <si>
+    <t>jonasgum@kth.se</t>
+  </si>
+  <si>
+    <t>Gustav Wegner</t>
+  </si>
+  <si>
+    <t>gwegner@kth.se</t>
+  </si>
+  <si>
+    <t>Gul 8 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Julia Andersson</t>
+  </si>
+  <si>
+    <t>juander@kth.se</t>
+  </si>
+  <si>
+    <t>Erik Gustafsson</t>
+  </si>
+  <si>
+    <t>erigust@kth.se</t>
+  </si>
+  <si>
+    <t>Johan Myhrman Larsson</t>
+  </si>
+  <si>
+    <t>johlar4@kth.se</t>
+  </si>
+  <si>
+    <t>Agnes Röllgårdh</t>
+  </si>
+  <si>
+    <t>agnesrol@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 1 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Alice Ahlkvist</t>
+  </si>
+  <si>
+    <t>aliahl@kth.se</t>
+  </si>
+  <si>
+    <t>Angelica Aria De Moraes</t>
+  </si>
+  <si>
+    <t>aadm@kth.se</t>
+  </si>
+  <si>
+    <t>August Claesson</t>
+  </si>
+  <si>
+    <t>augustcl@kth.se</t>
+  </si>
+  <si>
+    <t>Karl Escher</t>
+  </si>
+  <si>
+    <t>kescher@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 2 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>William Jakobsson</t>
+  </si>
+  <si>
+    <t>wjak@kth.se</t>
+  </si>
+  <si>
+    <t>Elena Kokkalis</t>
+  </si>
+  <si>
+    <t>elenakok@kth.se</t>
+  </si>
+  <si>
+    <t>Sebastian Lind</t>
+  </si>
+  <si>
+    <t>sebalind@kth.se</t>
+  </si>
+  <si>
+    <t>Joanna Sandell</t>
+  </si>
+  <si>
+    <t>joannasa@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 3 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>John Alexandersson</t>
+  </si>
+  <si>
+    <t>johnale@kth.se</t>
+  </si>
+  <si>
+    <t>Linn Axelson</t>
+  </si>
+  <si>
+    <t>laxelson@kth.se</t>
+  </si>
+  <si>
+    <t>Reta Hashisho</t>
+  </si>
+  <si>
+    <t>hashisho@kth.se</t>
+  </si>
+  <si>
+    <t>Oscar Pihlsgård</t>
+  </si>
+  <si>
+    <t>oscarpi@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 4 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Mauritz Djursén</t>
+  </si>
+  <si>
+    <t>djursen@kth.se</t>
+  </si>
+  <si>
+    <t>Andreas Jansson</t>
+  </si>
+  <si>
+    <t>ajan3@kth.se</t>
+  </si>
+  <si>
+    <t>Lisa Larsson</t>
+  </si>
+  <si>
+    <t>lisla@kth.se</t>
+  </si>
+  <si>
+    <t>Ture Zingmark</t>
+  </si>
+  <si>
+    <t>turez@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 5 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christopher Miranda </t>
+  </si>
+  <si>
+    <t>camm2@kth.se</t>
+  </si>
+  <si>
+    <t>Tom Poncin</t>
+  </si>
+  <si>
+    <t>poncin@kth.se</t>
+  </si>
+  <si>
+    <t>Fadi Simonides</t>
+  </si>
+  <si>
+    <t>fadisi@kth.se</t>
+  </si>
+  <si>
+    <t>Tore Österlund</t>
+  </si>
+  <si>
+    <t>toreo@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 6 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Jakob Ankarbring</t>
+  </si>
+  <si>
+    <t>jakank@kth.se</t>
+  </si>
+  <si>
+    <t>Magnus Burton</t>
+  </si>
+  <si>
+    <t>mburton@kth.se</t>
+  </si>
+  <si>
+    <t>Ali Aziz El-Ansari</t>
+  </si>
+  <si>
+    <t>aaea@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 7 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Lucas Hollsten</t>
+  </si>
+  <si>
+    <t>lucashol@kth.se</t>
+  </si>
+  <si>
+    <t>Manfred Jonsson</t>
+  </si>
+  <si>
+    <t>manjon@kth.se</t>
+  </si>
+  <si>
+    <t>Markus Leijström</t>
+  </si>
+  <si>
+    <t>leijs@kth.se</t>
+  </si>
+  <si>
+    <t>Orange 8 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Theodor Norsten</t>
+  </si>
+  <si>
+    <t>theodorn@kth.se</t>
+  </si>
+  <si>
+    <t>Sofia Rylander</t>
+  </si>
+  <si>
+    <t>sofiaryl@kth.se</t>
+  </si>
+  <si>
+    <t>Daniel Wollberg</t>
+  </si>
+  <si>
+    <t>dwo@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 1 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Abdulahi Ahmed</t>
+  </si>
+  <si>
+    <t>abahmed@kth.se</t>
+  </si>
+  <si>
+    <t>Benjamin Gillberg</t>
+  </si>
+  <si>
+    <t>benamin@kth.se</t>
+  </si>
+  <si>
+    <t>Elin Lindgren</t>
+  </si>
+  <si>
+    <t>ellindgr@kth.se</t>
+  </si>
+  <si>
+    <t>Simon Wikström</t>
+  </si>
+  <si>
+    <t>siwi@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 2 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Hugo Hofstedt Alamaa</t>
+  </si>
+  <si>
+    <t>halamaa@kth.se</t>
+  </si>
+  <si>
+    <t>Amanda Göthlin</t>
+  </si>
+  <si>
+    <t>agot@kth.se</t>
+  </si>
+  <si>
+    <t>Egil Morast</t>
+  </si>
+  <si>
+    <t>emorast@kth.se</t>
+  </si>
+  <si>
+    <t>Sofia Wåhlén</t>
+  </si>
+  <si>
+    <t>swahle@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 3 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Theo Björk</t>
+  </si>
+  <si>
+    <t>theobj@kth.se</t>
+  </si>
+  <si>
+    <t>Linn Haglund</t>
+  </si>
+  <si>
+    <t>linnhagl@kth.se</t>
+  </si>
+  <si>
+    <t>Ferza Nigit</t>
+  </si>
+  <si>
+    <t>ferza@kth.se</t>
+  </si>
+  <si>
+    <t>Sebastian Åslund</t>
+  </si>
+  <si>
+    <t>sasl@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 4 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Elin Brodd</t>
+  </si>
+  <si>
+    <t>ebrodd@kth.se</t>
+  </si>
+  <si>
+    <t>Mario Habib Ishak</t>
+  </si>
+  <si>
+    <t>mariohi@kth.se</t>
+  </si>
+  <si>
+    <t>Mustafa Paikar</t>
+  </si>
+  <si>
+    <t>paikar@kth.se</t>
+  </si>
+  <si>
+    <t>Lina Östlund</t>
+  </si>
+  <si>
+    <t>linaos@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 5 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Ludwig Djursén</t>
+  </si>
+  <si>
+    <t>ludwigd@kth.se</t>
+  </si>
+  <si>
+    <t>Nihayat Faris</t>
+  </si>
+  <si>
+    <t>nihayat@kth.se</t>
+  </si>
+  <si>
+    <t>Maja Jansson</t>
+  </si>
+  <si>
+    <t>majajan@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 6 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Oskar Josefsson</t>
+  </si>
+  <si>
+    <t>oskarjos@kth.se</t>
+  </si>
+  <si>
+    <t>Ellinor Persson</t>
+  </si>
+  <si>
+    <t>ellp@kth.se</t>
+  </si>
+  <si>
+    <t>Hawler Rabun</t>
+  </si>
+  <si>
+    <t>rabun@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 7 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Caroline Faxe</t>
+  </si>
+  <si>
+    <t>cfaxe@kth.se</t>
+  </si>
+  <si>
+    <t>Patrik Jäghammar</t>
+  </si>
+  <si>
+    <t>patjag@kth.se</t>
+  </si>
+  <si>
+    <t>Gustav Skoog</t>
+  </si>
+  <si>
+    <t>gsko@kth.se</t>
+  </si>
+  <si>
+    <t>Röd 8 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Victor Gard</t>
+  </si>
+  <si>
+    <t>vgard@kth.se</t>
+  </si>
+  <si>
+    <t>Astrid Lindblom</t>
+  </si>
+  <si>
+    <t>aslindbl@kth.se</t>
+  </si>
+  <si>
+    <t>Natasha Mridha Rahman</t>
+  </si>
+  <si>
+    <t>natashar@kth.se</t>
+  </si>
+  <si>
+    <t>Erika Twengström</t>
+  </si>
+  <si>
+    <t>erikatw@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 1 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Rebecca Adler</t>
+  </si>
+  <si>
+    <t>radl@kth.se</t>
+  </si>
+  <si>
+    <t>Paul Akram Allaga</t>
+  </si>
+  <si>
+    <t>allaga@kth.se</t>
+  </si>
+  <si>
+    <t>Ali Alsahlani</t>
+  </si>
+  <si>
+    <t>alials@kth.se</t>
+  </si>
+  <si>
+    <t>Sofie Börjesson</t>
+  </si>
+  <si>
+    <t>sborj@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 2 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Elias Carlson</t>
+  </si>
+  <si>
+    <t>ecarlso@kth.se</t>
+  </si>
+  <si>
+    <t>Sabina Dal</t>
+  </si>
+  <si>
+    <t>sabinad@kth.se</t>
+  </si>
+  <si>
+    <t>Erland Ekholm</t>
+  </si>
+  <si>
+    <t>erlandek@kth.se</t>
+  </si>
+  <si>
+    <t>Stina Englesson</t>
+  </si>
+  <si>
+    <t>stinaeng@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 3 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Meriton Gjoshi</t>
+  </si>
+  <si>
+    <t>meriton@kth.se</t>
+  </si>
+  <si>
+    <t>Evelina Husak</t>
+  </si>
+  <si>
+    <t>ehusak@kth.se</t>
+  </si>
+  <si>
+    <t>Rahi Joel</t>
+  </si>
+  <si>
+    <t>rahij@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 4 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Anton Kindlund</t>
+  </si>
+  <si>
+    <t>antonkin@kth.se</t>
+  </si>
+  <si>
+    <t>Disa Lindbohm</t>
+  </si>
+  <si>
+    <t>disali@kth.se</t>
+  </si>
+  <si>
+    <t>Petra Ljunggren</t>
+  </si>
+  <si>
+    <t>petralj@kth.se</t>
+  </si>
+  <si>
+    <t>Isak Ljungström</t>
+  </si>
+  <si>
+    <t>isaklj@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 5 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Karl Mårtensson</t>
+  </si>
+  <si>
+    <t>karlmart@kth.se</t>
+  </si>
+  <si>
+    <t>Pauline Ollén</t>
+  </si>
+  <si>
+    <t>pollen@kth.se</t>
+  </si>
+  <si>
+    <t>Filip Mehdi Poor</t>
+  </si>
+  <si>
+    <t>filipmp@kth.se</t>
+  </si>
+  <si>
+    <t>William Pripp</t>
+  </si>
+  <si>
+    <t>wpripp@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 6 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Ninve Janzon</t>
+  </si>
+  <si>
+    <t>ninvej@kth.se</t>
+  </si>
+  <si>
+    <t>Sami Safi</t>
+  </si>
+  <si>
+    <t>ssafi@kth.se</t>
+  </si>
+  <si>
+    <t>Maximilian Schroeder</t>
+  </si>
+  <si>
+    <t>schroe@kth.se</t>
+  </si>
+  <si>
+    <t>Jesper Spång</t>
+  </si>
+  <si>
+    <t>jespersp@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 7 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>Oliver Stiernström</t>
+  </si>
+  <si>
+    <t>olisti@kth.se</t>
+  </si>
+  <si>
+    <t>Rickard Tillberg</t>
+  </si>
+  <si>
+    <t>rtil@kth.se</t>
+  </si>
+  <si>
+    <t>Elias Toma</t>
+  </si>
+  <si>
+    <t>etoma@kth.se</t>
+  </si>
+  <si>
+    <t>Svart 8 - Moment 1 och 4</t>
+  </si>
+  <si>
+    <t>William Wallstedt</t>
+  </si>
+  <si>
+    <t>wwal@kth.se</t>
+  </si>
+  <si>
+    <t>Klara Wennersten</t>
+  </si>
+  <si>
+    <t>klarawe@kth.se</t>
+  </si>
+  <si>
+    <t>Camilla Wright</t>
+  </si>
+  <si>
+    <t>cwright@kth.se</t>
   </si>
 </sst>
 </file>
@@ -581,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B261"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -626,21 +1574,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -676,21 +1624,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -718,154 +1666,1670 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>197</v>
+      </c>
+      <c r="B138" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>204</v>
+      </c>
+      <c r="B143" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>206</v>
+      </c>
+      <c r="B144" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B147" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>211</v>
+      </c>
+      <c r="B148" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>227</v>
+      </c>
+      <c r="B159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>229</v>
+      </c>
+      <c r="B160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>231</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>234</v>
+      </c>
+      <c r="B164" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>236</v>
+      </c>
+      <c r="B165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>238</v>
+      </c>
+      <c r="B166" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>241</v>
+      </c>
+      <c r="B169" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>243</v>
+      </c>
+      <c r="B170" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>248</v>
+      </c>
+      <c r="B174" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>254</v>
+      </c>
+      <c r="B177" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>257</v>
+      </c>
+      <c r="B180" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>259</v>
+      </c>
+      <c r="B181" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>261</v>
+      </c>
+      <c r="B182" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>263</v>
+      </c>
+      <c r="B183" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>266</v>
+      </c>
+      <c r="B186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>268</v>
+      </c>
+      <c r="B187" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>270</v>
+      </c>
+      <c r="B188" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>275</v>
+      </c>
+      <c r="B192" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>277</v>
+      </c>
+      <c r="B193" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>279</v>
+      </c>
+      <c r="B194" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>281</v>
+      </c>
+      <c r="B195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>284</v>
+      </c>
+      <c r="B198" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>291</v>
+      </c>
+      <c r="B203" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>293</v>
+      </c>
+      <c r="B204" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>295</v>
+      </c>
+      <c r="B205" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>298</v>
+      </c>
+      <c r="B208" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>300</v>
+      </c>
+      <c r="B209" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>302</v>
+      </c>
+      <c r="B210" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>305</v>
+      </c>
+      <c r="B213" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>307</v>
+      </c>
+      <c r="B214" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>309</v>
+      </c>
+      <c r="B215" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>311</v>
+      </c>
+      <c r="B216" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>314</v>
+      </c>
+      <c r="B219" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>316</v>
+      </c>
+      <c r="B220" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>318</v>
+      </c>
+      <c r="B221" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>320</v>
+      </c>
+      <c r="B222" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>323</v>
+      </c>
+      <c r="B225" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>325</v>
+      </c>
+      <c r="B226" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>327</v>
+      </c>
+      <c r="B227" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>329</v>
+      </c>
+      <c r="B228" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>332</v>
+      </c>
+      <c r="B231" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>334</v>
+      </c>
+      <c r="B232" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>336</v>
+      </c>
+      <c r="B233" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>339</v>
+      </c>
+      <c r="B236" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>341</v>
+      </c>
+      <c r="B237" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>343</v>
+      </c>
+      <c r="B238" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>345</v>
+      </c>
+      <c r="B239" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>348</v>
+      </c>
+      <c r="B242" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>350</v>
+      </c>
+      <c r="B243" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>352</v>
+      </c>
+      <c r="B244" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>354</v>
+      </c>
+      <c r="B245" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>357</v>
+      </c>
+      <c r="B248" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>359</v>
+      </c>
+      <c r="B249" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>361</v>
+      </c>
+      <c r="B250" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>363</v>
+      </c>
+      <c r="B251" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>366</v>
+      </c>
+      <c r="B254" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>368</v>
+      </c>
+      <c r="B255" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>370</v>
+      </c>
+      <c r="B256" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>373</v>
+      </c>
+      <c r="B259" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>375</v>
+      </c>
+      <c r="B260" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>377</v>
+      </c>
+      <c r="B261" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
